--- a/testing/d0g_se.xlsx
+++ b/testing/d0g_se.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="39">
   <si>
     <t>d0g_glmm</t>
   </si>
@@ -27,52 +27,52 @@
     <t xml:space="preserve">  1</t>
   </si>
   <si>
-    <t>(0.175)</t>
-  </si>
-  <si>
-    <t>(0.176)</t>
+    <t>(0.244)</t>
+  </si>
+  <si>
+    <t>(0.251)</t>
   </si>
   <si>
     <t xml:space="preserve">  2</t>
   </si>
   <si>
-    <t>(0.181)</t>
-  </si>
-  <si>
-    <t>(0.182)</t>
+    <t>(0.268)</t>
+  </si>
+  <si>
+    <t>(0.281)</t>
   </si>
   <si>
     <t xml:space="preserve">  3</t>
   </si>
   <si>
-    <t>(0.195)</t>
-  </si>
-  <si>
-    <t>(0.196)</t>
+    <t>(0.310)</t>
+  </si>
+  <si>
+    <t>(0.326)</t>
   </si>
   <si>
     <t xml:space="preserve">  4</t>
   </si>
   <si>
-    <t>(0.217)</t>
-  </si>
-  <si>
-    <t>(0.219)</t>
+    <t>(0.362)</t>
+  </si>
+  <si>
+    <t>(0.379)</t>
   </si>
   <si>
     <t xml:space="preserve">  5</t>
   </si>
   <si>
-    <t>(0.246)</t>
-  </si>
-  <si>
-    <t>(0.250)</t>
+    <t>(0.417)</t>
+  </si>
+  <si>
+    <t>(0.435)</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>(0.133)</t>
+    <t>(0.287)</t>
   </si>
   <si>
     <t>M1[i]</t>
@@ -90,37 +90,43 @@
     <t>var(M1[i])</t>
   </si>
   <si>
-    <t>(0.397)</t>
+    <t>(0.636)</t>
+  </si>
+  <si>
+    <t>(0.638)</t>
   </si>
   <si>
     <t>var(M2[i&gt;id])</t>
   </si>
   <si>
-    <t>(0.306)</t>
+    <t>(2.161)</t>
+  </si>
+  <si>
+    <t>(2.164)</t>
   </si>
   <si>
     <t>var(e.yobs)</t>
   </si>
   <si>
-    <t>(0.194)</t>
-  </si>
-  <si>
-    <t>(0.059)</t>
-  </si>
-  <si>
-    <t>(0.017)</t>
-  </si>
-  <si>
-    <t>(0.013)</t>
-  </si>
-  <si>
-    <t>(0.065)</t>
+    <t>(0.957)</t>
+  </si>
+  <si>
+    <t>(0.058)</t>
+  </si>
+  <si>
+    <t>(0.030)</t>
+  </si>
+  <si>
+    <t>(0.005)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
   </si>
   <si>
     <t>ln_p</t>
   </si>
   <si>
-    <t>(0.026)</t>
+    <t>(0.025)</t>
   </si>
   <si>
     <t>Number of observations</t>
@@ -2089,29 +2095,29 @@
         <v>25</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2124,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2132,7 +2138,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2140,7 +2146,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2148,26 +2154,26 @@
         <v>23</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="115">
-        <v>7862</v>
+        <v>8480</v>
       </c>
       <c r="C22" s="119">
-        <v>9637</v>
+        <v>10352</v>
       </c>
     </row>
   </sheetData>
